--- a/Ergebnisse_Teil_1/Study_15_10_2025_Taguchi_Modell_1.1_KS_Holdout_seed_999/metrics/Trial_265__Reeval_Taguchi_Modell_1.1.xlsx
+++ b/Ergebnisse_Teil_1/Study_15_10_2025_Taguchi_Modell_1.1_KS_Holdout_seed_999/metrics/Trial_265__Reeval_Taguchi_Modell_1.1.xlsx
@@ -5420,7 +5420,7 @@
                   <c:v>1.078603863716125</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.448673963546753</c:v>
+                  <c:v>1.448675751686096</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>53.04860687255859</c:v>
@@ -5429,13 +5429,13 @@
                   <c:v>54.53144454956055</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>45.77022933959961</c:v>
+                  <c:v>45.77023315429688</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>14.0355110168457</c:v>
+                  <c:v>14.03551483154297</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.163370251655579</c:v>
+                  <c:v>1.163372159004211</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0.7068945169448853</c:v>
@@ -5450,16 +5450,16 @@
                   <c:v>0.6514707207679749</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>52.20724868774414</c:v>
+                  <c:v>52.20724487304688</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.6835528016090393</c:v>
+                  <c:v>0.6835509538650513</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-0.1158023923635483</c:v>
+                  <c:v>-0.1158005222678185</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-0.1158023923635483</c:v>
+                  <c:v>-0.1158005222678185</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>1.029126882553101</c:v>
@@ -5480,28 +5480,28 @@
                   <c:v>1.507198929786682</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.2637148201465607</c:v>
+                  <c:v>0.2637166976928711</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>52.35847091674805</c:v>
+                  <c:v>52.35847473144531</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>0.5403993129730225</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>-0.1158023923635483</c:v>
+                  <c:v>-0.1158005222678185</c:v>
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>0.4680878818035126</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.9201981425285339</c:v>
+                  <c:v>0.9201962947845459</c:v>
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>51.63635635375977</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>-0.1158023923635483</c:v>
+                  <c:v>-0.1158005222678185</c:v>
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>53.29880142211914</c:v>
@@ -5519,46 +5519,46 @@
                   <c:v>0.4406044185161591</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>-0.1158023923635483</c:v>
+                  <c:v>-0.1158005222678185</c:v>
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>33.09823989868164</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.65605628490448</c:v>
+                  <c:v>0.6560599803924561</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>14.99549865722656</c:v>
+                  <c:v>14.99549770355225</c:v>
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>52.6859245300293</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>-0.1158023923635483</c:v>
+                  <c:v>-0.1158005222678185</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>44.52706909179688</c:v>
+                  <c:v>44.52706527709961</c:v>
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>0.2226817011833191</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>-0.1143198683857918</c:v>
+                  <c:v>-0.1143217384815216</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.1946201473474503</c:v>
+                  <c:v>0.1946238726377487</c:v>
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>0.330842137336731</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.1717595309019089</c:v>
+                  <c:v>0.1717558056116104</c:v>
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>47.6900634765625</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.3913549780845642</c:v>
+                  <c:v>0.3913531005382538</c:v>
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>49.13300323486328</c:v>
@@ -5567,16 +5567,16 @@
                   <c:v>-0.115811713039875</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>-0.1158023923635483</c:v>
+                  <c:v>-0.1158005222678185</c:v>
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>-0.03402705863118172</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>-0.1158023923635483</c:v>
+                  <c:v>-0.1158005222678185</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>-0.1158023923635483</c:v>
+                  <c:v>-0.1158005222678185</c:v>
                 </c:pt>
                 <c:pt idx="54">
                   <c:v>0.7451397776603699</c:v>
@@ -5585,13 +5585,13 @@
                   <c:v>-0.02912076003849506</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0.1255254745483398</c:v>
+                  <c:v>0.1255273371934891</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0.05484012141823769</c:v>
+                  <c:v>0.05483825504779816</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>0.3001437485218048</c:v>
+                  <c:v>0.3001455962657928</c:v>
                 </c:pt>
                 <c:pt idx="59">
                   <c:v>0.08304526656866074</c:v>
@@ -5600,19 +5600,19 @@
                   <c:v>0.6512749195098877</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0.127953439950943</c:v>
+                  <c:v>0.1279553025960922</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>1.054365158081055</c:v>
+                  <c:v>1.054366946220398</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>5.486563205718994</c:v>
+                  <c:v>5.486565113067627</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>-0.09669934958219528</c:v>
+                  <c:v>-0.09669748693704605</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>1.266411781311035</c:v>
+                  <c:v>1.266409993171692</c:v>
                 </c:pt>
                 <c:pt idx="66">
                   <c:v>0.5273792743682861</c:v>
@@ -5624,7 +5624,7 @@
                   <c:v>0.4980627298355103</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>-0.09375669062137604</c:v>
+                  <c:v>-0.09375482797622681</c:v>
                 </c:pt>
                 <c:pt idx="70">
                   <c:v>-0.1733240932226181</c:v>
@@ -5648,7 +5648,7 @@
                   <c:v>31.2906379699707</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>0.4358193278312683</c:v>
+                  <c:v>0.4358230531215668</c:v>
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>0.323573112487793</c:v>
@@ -5669,19 +5669,19 @@
                   <c:v>0.3377157747745514</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>0.3242015540599823</c:v>
+                  <c:v>0.3241978287696838</c:v>
                 </c:pt>
                 <c:pt idx="85">
                   <c:v>39.35264587402344</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>0.5062063336372375</c:v>
+                  <c:v>0.5062081813812256</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>-0.1158023923635483</c:v>
+                  <c:v>-0.1158005222678185</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>0.1116625294089317</c:v>
+                  <c:v>0.1116587966680527</c:v>
                 </c:pt>
                 <c:pt idx="89">
                   <c:v>-0.2600448727607727</c:v>
@@ -6411,7 +6411,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.448673963546753</v>
+        <v>1.448675751686096</v>
       </c>
       <c r="G3">
         <v>72</v>
@@ -6507,7 +6507,7 @@
         <v>45.684</v>
       </c>
       <c r="F6">
-        <v>45.77022933959961</v>
+        <v>45.77023315429688</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -6539,7 +6539,7 @@
         <v>45.5437</v>
       </c>
       <c r="F7">
-        <v>14.0355110168457</v>
+        <v>14.03551483154297</v>
       </c>
       <c r="G7">
         <v>72</v>
@@ -6571,7 +6571,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.163370251655579</v>
+        <v>1.163372159004211</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -6671,7 +6671,7 @@
         <v>50.4351</v>
       </c>
       <c r="F13">
-        <v>52.20724868774414</v>
+        <v>52.20724487304688</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -6691,7 +6691,7 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>0.6835528016090393</v>
+        <v>0.6835509538650513</v>
       </c>
     </row>
     <row r="15" spans="1:19">
@@ -6711,7 +6711,7 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>-0.1158023923635483</v>
+        <v>-0.1158005222678185</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -6731,7 +6731,7 @@
         <v>48.8989</v>
       </c>
       <c r="F16">
-        <v>-0.1158023923635483</v>
+        <v>-0.1158005222678185</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -6871,7 +6871,7 @@
         <v>0</v>
       </c>
       <c r="F23">
-        <v>0.2637148201465607</v>
+        <v>0.2637166976928711</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -6891,7 +6891,7 @@
         <v>46.0768</v>
       </c>
       <c r="F24">
-        <v>52.35847091674805</v>
+        <v>52.35847473144531</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -6931,7 +6931,7 @@
         <v>0</v>
       </c>
       <c r="F26">
-        <v>-0.1158023923635483</v>
+        <v>-0.1158005222678185</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -6971,7 +6971,7 @@
         <v>0</v>
       </c>
       <c r="F28">
-        <v>0.9201981425285339</v>
+        <v>0.9201962947845459</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -7011,7 +7011,7 @@
         <v>0</v>
       </c>
       <c r="F30">
-        <v>-0.1158023923635483</v>
+        <v>-0.1158005222678185</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -7131,7 +7131,7 @@
         <v>0</v>
       </c>
       <c r="F36">
-        <v>-0.1158023923635483</v>
+        <v>-0.1158005222678185</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -7171,7 +7171,7 @@
         <v>0</v>
       </c>
       <c r="F38">
-        <v>0.65605628490448</v>
+        <v>0.6560599803924561</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -7191,7 +7191,7 @@
         <v>45.1545</v>
       </c>
       <c r="F39">
-        <v>14.99549865722656</v>
+        <v>14.99549770355225</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -7231,7 +7231,7 @@
         <v>0</v>
       </c>
       <c r="F41">
-        <v>-0.1158023923635483</v>
+        <v>-0.1158005222678185</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -7251,7 +7251,7 @@
         <v>44.6167</v>
       </c>
       <c r="F42">
-        <v>44.52706909179688</v>
+        <v>44.52706527709961</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -7291,7 +7291,7 @@
         <v>0</v>
       </c>
       <c r="F44">
-        <v>-0.1143198683857918</v>
+        <v>-0.1143217384815216</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -7311,7 +7311,7 @@
         <v>0</v>
       </c>
       <c r="F45">
-        <v>0.1946201473474503</v>
+        <v>0.1946238726377487</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -7351,7 +7351,7 @@
         <v>0</v>
       </c>
       <c r="F47">
-        <v>0.1717595309019089</v>
+        <v>0.1717558056116104</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -7391,7 +7391,7 @@
         <v>0</v>
       </c>
       <c r="F49">
-        <v>0.3913549780845642</v>
+        <v>0.3913531005382538</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -7451,7 +7451,7 @@
         <v>0</v>
       </c>
       <c r="F52">
-        <v>-0.1158023923635483</v>
+        <v>-0.1158005222678185</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -7491,7 +7491,7 @@
         <v>0</v>
       </c>
       <c r="F54">
-        <v>-0.1158023923635483</v>
+        <v>-0.1158005222678185</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -7511,7 +7511,7 @@
         <v>0</v>
       </c>
       <c r="F55">
-        <v>-0.1158023923635483</v>
+        <v>-0.1158005222678185</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -7571,7 +7571,7 @@
         <v>0</v>
       </c>
       <c r="F58">
-        <v>0.1255254745483398</v>
+        <v>0.1255273371934891</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -7591,7 +7591,7 @@
         <v>0</v>
       </c>
       <c r="F59">
-        <v>0.05484012141823769</v>
+        <v>0.05483825504779816</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -7611,7 +7611,7 @@
         <v>0</v>
       </c>
       <c r="F60">
-        <v>0.3001437485218048</v>
+        <v>0.3001455962657928</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -7671,7 +7671,7 @@
         <v>0</v>
       </c>
       <c r="F63">
-        <v>0.127953439950943</v>
+        <v>0.1279553025960922</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -7691,7 +7691,7 @@
         <v>0</v>
       </c>
       <c r="F64">
-        <v>1.054365158081055</v>
+        <v>1.054366946220398</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -7711,7 +7711,7 @@
         <v>0</v>
       </c>
       <c r="F65">
-        <v>5.486563205718994</v>
+        <v>5.486565113067627</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -7731,7 +7731,7 @@
         <v>0</v>
       </c>
       <c r="F66">
-        <v>-0.09669934958219528</v>
+        <v>-0.09669748693704605</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -7751,7 +7751,7 @@
         <v>0</v>
       </c>
       <c r="F67">
-        <v>1.266411781311035</v>
+        <v>1.266409993171692</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -7831,7 +7831,7 @@
         <v>0</v>
       </c>
       <c r="F71">
-        <v>-0.09375669062137604</v>
+        <v>-0.09375482797622681</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -7991,7 +7991,7 @@
         <v>0</v>
       </c>
       <c r="F79">
-        <v>0.4358193278312683</v>
+        <v>0.4358230531215668</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -8131,7 +8131,7 @@
         <v>0</v>
       </c>
       <c r="F86">
-        <v>0.3242015540599823</v>
+        <v>0.3241978287696838</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -8171,7 +8171,7 @@
         <v>0</v>
       </c>
       <c r="F88">
-        <v>0.5062063336372375</v>
+        <v>0.5062081813812256</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -8191,7 +8191,7 @@
         <v>0</v>
       </c>
       <c r="F89">
-        <v>-0.1158023923635483</v>
+        <v>-0.1158005222678185</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -8211,7 +8211,7 @@
         <v>0</v>
       </c>
       <c r="F90">
-        <v>0.1116625294089317</v>
+        <v>0.1116587966680527</v>
       </c>
     </row>
     <row r="91" spans="1:6">
